--- a/Template.xlsx
+++ b/Template.xlsx
@@ -3,12 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DC8065D-9B52-49FA-BF44-2678E1C4EC90}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C1C65B-B83D-42B6-B2DF-CFB3A2F1F934}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Setup" sheetId="1" r:id="rId1"/>
+    <sheet name="Ticks" sheetId="2" r:id="rId2"/>
+    <sheet name="Scores" sheetId="3" r:id="rId3"/>
+    <sheet name="LeaderBoard" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>First Name</t>
   </si>
@@ -62,6 +65,24 @@
   </si>
   <si>
     <t xml:space="preserve">Route </t>
+  </si>
+  <si>
+    <t>Climber</t>
+  </si>
+  <si>
+    <t>Gabe Huinker</t>
+  </si>
+  <si>
+    <t>Lydia Heydlauff</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Beginner</t>
+  </si>
+  <si>
+    <t>Intermediate</t>
   </si>
 </sst>
 </file>
@@ -379,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -480,424 +501,199 @@
         <v>280</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G5">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC9DE7C-4EAF-4EB3-B2A8-1D22D950820A}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>4</v>
       </c>
-      <c r="H5">
-        <v>400</v>
-      </c>
-      <c r="I5">
-        <v>390</v>
-      </c>
-      <c r="J5">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G6">
-        <v>5</v>
-      </c>
-      <c r="H6">
-        <v>500</v>
-      </c>
-      <c r="I6">
-        <v>490</v>
-      </c>
-      <c r="J6">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G7">
-        <v>6</v>
-      </c>
-      <c r="H7">
-        <v>600</v>
-      </c>
-      <c r="I7">
-        <v>590</v>
-      </c>
-      <c r="J7">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G8">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C22103D-4F7C-42EE-AB24-9D41E04BBA38}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>280</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>570</v>
+      </c>
+      <c r="C3">
+        <v>80</v>
+      </c>
+      <c r="D3">
+        <v>190</v>
+      </c>
+      <c r="E3">
+        <v>300</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30846140-8C1B-43C2-B7D5-EF4CA6178D47}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="H8">
-        <v>700</v>
-      </c>
-      <c r="I8">
-        <v>690</v>
-      </c>
-      <c r="J8">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G9">
-        <v>8</v>
-      </c>
-      <c r="H9">
-        <v>800</v>
-      </c>
-      <c r="I9">
-        <v>790</v>
-      </c>
-      <c r="J9">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G10">
-        <v>9</v>
-      </c>
-      <c r="H10">
-        <v>900</v>
-      </c>
-      <c r="I10">
-        <v>890</v>
-      </c>
-      <c r="J10">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G11">
-        <v>10</v>
-      </c>
-      <c r="H11">
-        <v>1000</v>
-      </c>
-      <c r="I11">
-        <v>990</v>
-      </c>
-      <c r="J11">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G12">
-        <v>11</v>
-      </c>
-      <c r="H12">
-        <v>1100</v>
-      </c>
-      <c r="I12">
-        <v>1090</v>
-      </c>
-      <c r="J12">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G13">
-        <v>12</v>
-      </c>
-      <c r="H13">
-        <v>1200</v>
-      </c>
-      <c r="I13">
-        <v>1190</v>
-      </c>
-      <c r="J13">
-        <v>1180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G14">
-        <v>13</v>
-      </c>
-      <c r="H14">
-        <v>1300</v>
-      </c>
-      <c r="I14">
-        <v>1290</v>
-      </c>
-      <c r="J14">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G15">
-        <v>14</v>
-      </c>
-      <c r="H15">
-        <v>1400</v>
-      </c>
-      <c r="I15">
-        <v>1390</v>
-      </c>
-      <c r="J15">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="G16">
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>15</v>
       </c>
-      <c r="H16">
-        <v>1500</v>
-      </c>
-      <c r="I16">
-        <v>1490</v>
-      </c>
-      <c r="J16">
-        <v>1480</v>
-      </c>
-    </row>
-    <row r="17" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G17">
-        <v>16</v>
-      </c>
-      <c r="H17">
-        <v>1600</v>
-      </c>
-      <c r="I17">
-        <v>1590</v>
-      </c>
-      <c r="J17">
-        <v>1580</v>
-      </c>
-    </row>
-    <row r="18" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G18">
+      <c r="B5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
         <v>17</v>
       </c>
-      <c r="H18">
-        <v>1700</v>
-      </c>
-      <c r="I18">
-        <v>1690</v>
-      </c>
-      <c r="J18">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="19" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G19">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="H19">
-        <v>1800</v>
-      </c>
-      <c r="I19">
-        <v>1790</v>
-      </c>
-      <c r="J19">
-        <v>1780</v>
-      </c>
-    </row>
-    <row r="20" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G20">
-        <v>19</v>
-      </c>
-      <c r="H20">
-        <v>1900</v>
-      </c>
-      <c r="I20">
-        <v>1890</v>
-      </c>
-      <c r="J20">
-        <v>1880</v>
-      </c>
-    </row>
-    <row r="21" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G21">
-        <v>20</v>
-      </c>
-      <c r="H21">
-        <v>2000</v>
-      </c>
-      <c r="I21">
-        <v>1990</v>
-      </c>
-      <c r="J21">
-        <v>1980</v>
-      </c>
-    </row>
-    <row r="22" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G22">
-        <v>21</v>
-      </c>
-      <c r="H22">
-        <v>2100</v>
-      </c>
-      <c r="I22">
-        <v>2090</v>
-      </c>
-      <c r="J22">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="23" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G23">
-        <v>22</v>
-      </c>
-      <c r="H23">
-        <v>2200</v>
-      </c>
-      <c r="I23">
-        <v>2190</v>
-      </c>
-      <c r="J23">
-        <v>2180</v>
-      </c>
-    </row>
-    <row r="24" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G24">
-        <v>23</v>
-      </c>
-      <c r="H24">
-        <v>2300</v>
-      </c>
-      <c r="I24">
-        <v>2290</v>
-      </c>
-      <c r="J24">
-        <v>2280</v>
-      </c>
-    </row>
-    <row r="25" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G25">
-        <v>24</v>
-      </c>
-      <c r="H25">
-        <v>2400</v>
-      </c>
-      <c r="I25">
-        <v>2390</v>
-      </c>
-      <c r="J25">
-        <v>2380</v>
-      </c>
-    </row>
-    <row r="26" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G26">
-        <v>25</v>
-      </c>
-      <c r="H26">
-        <v>2500</v>
-      </c>
-      <c r="I26">
-        <v>2490</v>
-      </c>
-      <c r="J26">
-        <v>2480</v>
-      </c>
-    </row>
-    <row r="27" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G27">
-        <v>26</v>
-      </c>
-      <c r="H27">
-        <v>2600</v>
-      </c>
-      <c r="I27">
-        <v>2590</v>
-      </c>
-      <c r="J27">
-        <v>2580</v>
-      </c>
-    </row>
-    <row r="28" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G28">
-        <v>27</v>
-      </c>
-      <c r="H28">
-        <v>2700</v>
-      </c>
-      <c r="I28">
-        <v>2690</v>
-      </c>
-      <c r="J28">
-        <v>2680</v>
-      </c>
-    </row>
-    <row r="29" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G29">
-        <v>28</v>
-      </c>
-      <c r="H29">
-        <v>2800</v>
-      </c>
-      <c r="I29">
-        <v>2790</v>
-      </c>
-      <c r="J29">
-        <v>2780</v>
-      </c>
-    </row>
-    <row r="30" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G30">
-        <v>29</v>
-      </c>
-      <c r="H30">
-        <v>2900</v>
-      </c>
-      <c r="I30">
-        <v>2890</v>
-      </c>
-      <c r="J30">
-        <v>2880</v>
-      </c>
-    </row>
-    <row r="31" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G31">
-        <v>30</v>
-      </c>
-      <c r="H31">
-        <v>3000</v>
-      </c>
-      <c r="I31">
-        <v>2990</v>
-      </c>
-      <c r="J31">
-        <v>2980</v>
-      </c>
-    </row>
-    <row r="32" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G32">
-        <v>31</v>
-      </c>
-      <c r="H32">
-        <v>3100</v>
-      </c>
-      <c r="I32">
-        <v>3090</v>
-      </c>
-      <c r="J32">
-        <v>3080</v>
-      </c>
-    </row>
-    <row r="33" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G33">
-        <v>32</v>
-      </c>
-      <c r="H33">
-        <v>3200</v>
-      </c>
-      <c r="I33">
-        <v>3190</v>
-      </c>
-      <c r="J33">
-        <v>3180</v>
-      </c>
-    </row>
-    <row r="34" spans="7:10" x14ac:dyDescent="0.3">
-      <c r="G34">
-        <v>33</v>
-      </c>
-      <c r="H34">
-        <v>3300</v>
-      </c>
-      <c r="I34">
-        <v>3290</v>
-      </c>
-      <c r="J34">
-        <v>3280</v>
+      <c r="B9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C1C65B-B83D-42B6-B2DF-CFB3A2F1F934}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C92982-CBE4-4351-BE7E-6FA9858FFFC1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" r:id="rId1"/>
-    <sheet name="Ticks" sheetId="2" r:id="rId2"/>
+    <sheet name="Attempts" sheetId="2" r:id="rId2"/>
     <sheet name="Scores" sheetId="3" r:id="rId3"/>
     <sheet name="LeaderBoard" sheetId="4" r:id="rId4"/>
   </sheets>
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC9DE7C-4EAF-4EB3-B2A8-1D22D950820A}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -544,7 +544,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -639,7 +639,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30846140-8C1B-43C2-B7D5-EF4CA6178D47}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/Template.xlsx
+++ b/Template.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C92982-CBE4-4351-BE7E-6FA9858FFFC1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B4EDFD-4C79-4B88-BDE6-BA29FF70B467}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AC9DE7C-4EAF-4EB3-B2A8-1D22D950820A}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -570,7 +570,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C22103D-4F7C-42EE-AB24-9D41E04BBA38}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
